--- a/medicine/Mort/Cimetière_du_Centre_d'Hénin-Beaumont/Cimetière_du_Centre_d'Hénin-Beaumont.xlsx
+++ b/medicine/Mort/Cimetière_du_Centre_d'Hénin-Beaumont/Cimetière_du_Centre_d'Hénin-Beaumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_d%27H%C3%A9nin-Beaumont</t>
+          <t>Cimetière_du_Centre_d'Hénin-Beaumont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Centre d'Hénin-Beaumont est un cimetière situé dans le centre-ville de la commune d'Hénin-Beaumont, dans le Pas-de-Calais, en France. Jusque 1970 inclus (et la fusion effective le 1er janvier 1971), il s'agissait du cimetière d'Hénin-Liétard.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_d%27H%C3%A9nin-Beaumont</t>
+          <t>Cimetière_du_Centre_d'Hénin-Beaumont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Chapelle Saint-Roch est située en face du cimetière[1]. Le cimetière du centre comporte notamment plusieurs monuments aux morts et deux carrés militaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Chapelle Saint-Roch est située en face du cimetière. Le cimetière du centre comporte notamment plusieurs monuments aux morts et deux carrés militaires.
 			Le calvaire.
 			L'un des deux carrés militaires.
 			Le principal monument aux morts.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_d%27H%C3%A9nin-Beaumont</t>
+          <t>Cimetière_du_Centre_d'Hénin-Beaumont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vasil Borik, résistant et officier ukrainien.
 W. A. Gibbs, seule tombe de la Commonwealth War Graves Commission.
